--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-12_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-12_end.xlsx
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  We are well aware that a vessel belonging to an "Infected Countermeasures Specialist" is docked in a Lungmen berth, Superintendent Ch'en. This is the only reason Miss Blaze has not yet come to harm.
+    <t xml:space="preserve">[name="???"]  We are well aware that a vessel belonging to an 'Infected Countermeasures Specialist' is docked in a Lungmen berth, Superintendent Ch'en. This is the only reason Miss Blaze has not yet come to harm.
 </t>
   </si>
   <si>
@@ -1708,7 +1708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...But you will participate. Whether the Infected is codenamed "Mephisto" or "FrostNova."
+    <t xml:space="preserve">[name="Kal'tsit"]  ...But you will participate. Whether the Infected is codenamed 'Mephisto' or 'FrostNova.'
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ..."Whether or not to be one worthy of the trust of a Rhodes Island operator."
+    <t xml:space="preserve">[name="Kal'tsit"]  ...'Whether or not to be one worthy of the trust of a Rhodes Island operator.'
 </t>
   </si>
   <si>
